--- a/compare to optimal.xlsx
+++ b/compare to optimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\intersection-of-multiple-insertion-and-deletion-balls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066CC6FD-44D8-4E00-8AB3-9578B91168E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3E9ED0-8111-4F88-B7CE-E01B788FB191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,12 +637,6 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -668,6 +662,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -24958,15 +24958,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25333,7 +25333,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:K18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -25585,11 +25587,11 @@
         <v>4</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -25610,16 +25612,16 @@
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -25642,18 +25644,18 @@
       <c r="F14">
         <v>2</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <v>1</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="6">
         <f>AVERAGEIF(B:B, 1, C:C)</f>
         <v>1</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="7">
         <f>AVERAGEIF(B:B, 1, E:E)</f>
         <v>1.92</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="7">
         <f>AVERAGEIF(B:B, 1, F:F)</f>
         <v>2</v>
       </c>
@@ -25677,18 +25679,18 @@
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="H15" s="7">
-        <v>2</v>
-      </c>
-      <c r="I15" s="8">
+      <c r="H15" s="5">
+        <v>2</v>
+      </c>
+      <c r="I15" s="6">
         <f>AVERAGEIF(B:B, 2, C:C)</f>
         <v>1.98</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="7">
         <f>AVERAGEIF(B:B, 2, E:E)</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="7">
         <f>AVERAGEIF(B:B, 2, F:F)</f>
         <v>6.18</v>
       </c>
@@ -25712,18 +25714,18 @@
       <c r="F16">
         <v>2</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <v>3</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="6">
         <f>AVERAGEIF(B:B, 3, C:C)</f>
         <v>4.45</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="7">
         <f>AVERAGEIF(B:B, 3, E:E)</f>
         <v>13.28</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="7">
         <f>AVERAGEIF(B:B, 3, F:F)</f>
         <v>26.59</v>
       </c>
@@ -25747,18 +25749,18 @@
       <c r="F17">
         <v>2</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <v>4</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="6">
         <f>AVERAGEIF(B:B, 4, C:C)</f>
         <v>11.81</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="7">
         <f>AVERAGEIF(B:B, 4, E:E)</f>
         <v>33.5</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="7">
         <f>AVERAGEIF(B:B, 4, F:F)</f>
         <v>95.45</v>
       </c>
@@ -25782,18 +25784,18 @@
       <c r="F18">
         <v>2</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="8">
         <v>5</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="9">
         <f>AVERAGEIF(B:B, 5, C:C)</f>
         <v>28.44</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="10">
         <f>AVERAGEIF(B:B, 5, E:E)</f>
         <v>87.77</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="10">
         <f>AVERAGEIF(B:B, 5, F:F)</f>
         <v>387.59</v>
       </c>
